--- a/SmartStore/DataCalculate.xlsx
+++ b/SmartStore/DataCalculate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>BBK</t>
   </si>
@@ -63,6 +63,39 @@
   </si>
   <si>
     <t>insert all</t>
+  </si>
+  <si>
+    <t>A1 Welfare</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>B1 Monthly Expense</t>
+  </si>
+  <si>
+    <t>B1 Weekly Expense</t>
+  </si>
+  <si>
+    <t>Tawi50</t>
+  </si>
+  <si>
+    <t>Welfare</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Air Cleaning</t>
   </si>
 </sst>
 </file>
@@ -380,13 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K19"/>
+  <dimension ref="B3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -557,14 +594,168 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SmartStore/DataCalculate.xlsx
+++ b/SmartStore/DataCalculate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>BBK</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>Air Cleaning</t>
+  </si>
+  <si>
+    <t>startDt</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -413,348 +437,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N33"/>
+  <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:P24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>66</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5">
         <v>66</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>66</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7">
         <v>66</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>12</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>66</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11">
         <v>66</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>11</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>SUM(D14:D25)</f>
+        <v>282</v>
+      </c>
+      <c r="I12">
         <v>66</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G14">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>SUM(B14:B25)</f>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C14:C25)</f>
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f>C14/100*$D$13</f>
+        <v>40</v>
+      </c>
+      <c r="I14">
         <v>66</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>12</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>7</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="I15">
         <v>66</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f>C16/100*$D$13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f>C18/100*$D$13</f>
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f>C19/100*$D$13</f>
+        <v>76</v>
+      </c>
+      <c r="M19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f>C20/100*$D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f>C21/100*$D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>19</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>21</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>13</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>2</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>17</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
         <v>14</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>19</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>SUM(A22:A25)</f>
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
         <v>16</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>4</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>20</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>5</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>21</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
         <v>22</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>23</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>6</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>15</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="L29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N29">
         <v>7</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>14</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="L30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N30">
         <v>8</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>16</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="L31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N31">
         <v>9</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>18</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="L32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N32">
         <v>10</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>22</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L33">
+    <row r="33" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N33">
         <v>11</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>23</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>10</v>
       </c>
     </row>

--- a/SmartStore/DataCalculate.xlsx
+++ b/SmartStore/DataCalculate.xlsx
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>85</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>50000</v>
+      </c>
+      <c r="E10">
+        <v>50000</v>
+      </c>
+      <c r="F10">
+        <f>D10/E10*F9</f>
+        <v>85</v>
+      </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
